--- a/6/5_2_tablitsy_poparnykh_sravneniy.xlsx
+++ b/6/5_2_tablitsy_poparnykh_sravneniy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovac\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vova/Documents/MATLAB/matlab_projects/modern-applied-math-problems/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B858E-2D3C-4F8B-9F17-813514B78C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DC646-26F2-8643-A486-B7024EDBEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13840" yWindow="740" windowWidth="16400" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5_2" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +89,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +109,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -291,11 +303,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -310,6 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,12 +698,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>170</v>
@@ -683,7 +724,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>170</v>
       </c>
@@ -712,7 +753,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -739,7 +780,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>180</v>
       </c>
@@ -765,7 +806,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>185</v>
       </c>
@@ -790,7 +831,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>190</v>
       </c>
@@ -814,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>195</v>
       </c>
@@ -837,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>160</v>
@@ -875,7 +916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>160</v>
       </c>
@@ -915,7 +956,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>A16+5</f>
         <v>165</v>
@@ -955,7 +996,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A24" si="1">A17+5</f>
         <v>170</v>
@@ -994,7 +1035,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>175</v>
@@ -1032,7 +1073,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -1069,7 +1110,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>A20+5</f>
         <v>185</v>
@@ -1105,7 +1146,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -1140,7 +1181,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>185</v>
       </c>
@@ -1173,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -1215,72 +1256,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D19C1B3-F4F8-4A66-9D25-C52EEF2E7F30}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="D7" s="17">
         <v>-20</v>
       </c>
       <c r="E7" s="10">
@@ -1290,19 +1331,19 @@
         <f>E7+5</f>
         <v>-10</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="15">
         <f t="shared" ref="G7:O7" si="0">F7+5</f>
         <v>-5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1310,7 +1351,7 @@
         <f>J7+5</f>
         <v>15</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1322,12 +1363,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="19">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f>55/3</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <f>-20</f>
         <v>-20</v>
@@ -1360,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N8" s="3">
         <v>9</v>
@@ -1369,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <f t="shared" ref="C9:C19" si="1">C8+5</f>
         <v>-15</v>
@@ -1385,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>
@@ -1406,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="N9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <f t="shared" si="1"/>
         <v>-10</v>
@@ -1429,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>4</v>
@@ -1456,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <f t="shared" si="1"/>
         <v>-5</v>
@@ -1467,41 +1512,41 @@
       </c>
       <c r="E11" s="4" cm="1">
         <f t="array" ref="E11">1/INDEX($D$8:$O$19,COLUMN(E11)-COLUMN($D$8)+1,ROW(E11)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F11" s="4" cm="1">
         <f t="array" ref="F11">1/INDEX($D$8:$O$19,COLUMN(F11)-COLUMN($D$8)+1,ROW(F11)-ROW($D$8)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
       </c>
       <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5</v>
-      </c>
       <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3">
         <v>6</v>
       </c>
-      <c r="L11" s="3">
-        <v>6</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>7</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>8</v>
       </c>
-      <c r="O11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1516,38 +1561,38 @@
       </c>
       <c r="F12" s="4" cm="1">
         <f t="array" ref="F12">1/INDEX($D$8:$O$19,COLUMN(F12)-COLUMN($D$8)+1,ROW(F12)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G12" s="4" cm="1">
         <f t="array" ref="G12">1/INDEX($D$8:$O$19,COLUMN(G12)-COLUMN($D$8)+1,ROW(G12)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
       <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
       <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
         <v>6</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7</v>
       </c>
       <c r="N12" s="3">
         <v>7</v>
       </c>
       <c r="O12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1566,11 +1611,11 @@
       </c>
       <c r="G13" s="4" cm="1">
         <f t="array" ref="G13">1/INDEX($D$8:$O$19,COLUMN(G13)-COLUMN($D$8)+1,ROW(G13)-ROW($D$8)+1)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H13" s="4" cm="1">
         <f t="array" ref="H13">1/INDEX($D$8:$O$19,COLUMN(H13)-COLUMN($D$8)+1,ROW(H13)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
@@ -1579,22 +1624,22 @@
         <v>2</v>
       </c>
       <c r="K13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1613,11 +1658,11 @@
       </c>
       <c r="G14" s="4" cm="1">
         <f t="array" ref="G14">1/INDEX($D$8:$O$19,COLUMN(G14)-COLUMN($D$8)+1,ROW(G14)-ROW($D$8)+1)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H14" s="4" cm="1">
         <f t="array" ref="H14">1/INDEX($D$8:$O$19,COLUMN(H14)-COLUMN($D$8)+1,ROW(H14)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I14" s="4" cm="1">
         <f t="array" ref="I14">1/INDEX($D$8:$O$19,COLUMN(I14)-COLUMN($D$8)+1,ROW(I14)-ROW($D$8)+1)</f>
@@ -1630,19 +1675,19 @@
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1661,15 +1706,15 @@
       </c>
       <c r="G15" s="4" cm="1">
         <f t="array" ref="G15">1/INDEX($D$8:$O$19,COLUMN(G15)-COLUMN($D$8)+1,ROW(G15)-ROW($D$8)+1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="4" cm="1">
         <f t="array" ref="H15">1/INDEX($D$8:$O$19,COLUMN(H15)-COLUMN($D$8)+1,ROW(H15)-ROW($D$8)+1)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I15" s="4" cm="1">
         <f t="array" ref="I15">1/INDEX($D$8:$O$19,COLUMN(I15)-COLUMN($D$8)+1,ROW(I15)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J15" s="4" cm="1">
         <f t="array" ref="J15">1/INDEX($D$8:$O$19,COLUMN(J15)-COLUMN($D$8)+1,ROW(J15)-ROW($D$8)+1)</f>
@@ -1679,19 +1724,19 @@
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1710,45 +1755,45 @@
       </c>
       <c r="G16" s="4" cm="1">
         <f t="array" ref="G16">1/INDEX($D$8:$O$19,COLUMN(G16)-COLUMN($D$8)+1,ROW(G16)-ROW($D$8)+1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="H16" s="4" cm="1">
         <f t="array" ref="H16">1/INDEX($D$8:$O$19,COLUMN(H16)-COLUMN($D$8)+1,ROW(H16)-ROW($D$8)+1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="4" cm="1">
         <f t="array" ref="I16">1/INDEX($D$8:$O$19,COLUMN(I16)-COLUMN($D$8)+1,ROW(I16)-ROW($D$8)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="4" cm="1">
         <f t="array" ref="J16">1/INDEX($D$8:$O$19,COLUMN(J16)-COLUMN($D$8)+1,ROW(J16)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K16" s="4" cm="1">
         <f t="array" ref="K16">1/INDEX($D$8:$O$19,COLUMN(K16)-COLUMN($D$8)+1,ROW(K16)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="13">
         <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D17" s="4" cm="1">
         <f t="array" ref="D17">1/INDEX($D$8:$O$19,COLUMN(D17)-COLUMN($D$8)+1,ROW(D17)-ROW($D$8)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" s="4" cm="1">
         <f t="array" ref="E17">1/INDEX($D$8:$O$19,COLUMN(E17)-COLUMN($D$8)+1,ROW(E17)-ROW($D$8)+1)</f>
@@ -1760,39 +1805,39 @@
       </c>
       <c r="G17" s="4" cm="1">
         <f t="array" ref="G17">1/INDEX($D$8:$O$19,COLUMN(G17)-COLUMN($D$8)+1,ROW(G17)-ROW($D$8)+1)</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H17" s="4" cm="1">
         <f t="array" ref="H17">1/INDEX($D$8:$O$19,COLUMN(H17)-COLUMN($D$8)+1,ROW(H17)-ROW($D$8)+1)</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" ref="I17">1/INDEX($D$8:$O$19,COLUMN(I17)-COLUMN($D$8)+1,ROW(I17)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" ref="J17">1/INDEX($D$8:$O$19,COLUMN(J17)-COLUMN($D$8)+1,ROW(J17)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" ref="K17">1/INDEX($D$8:$O$19,COLUMN(K17)-COLUMN($D$8)+1,ROW(K17)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L17" s="4" cm="1">
         <f t="array" ref="L17">1/INDEX($D$8:$O$19,COLUMN(L17)-COLUMN($D$8)+1,ROW(L17)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="13">
         <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1803,7 +1848,7 @@
       </c>
       <c r="E18" s="4" cm="1">
         <f t="array" ref="E18">1/INDEX($D$8:$O$19,COLUMN(E18)-COLUMN($D$8)+1,ROW(E18)-ROW($D$8)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F18" s="4" cm="1">
         <f t="array" ref="F18">1/INDEX($D$8:$O$19,COLUMN(F18)-COLUMN($D$8)+1,ROW(F18)-ROW($D$8)+1)</f>
@@ -1811,7 +1856,7 @@
       </c>
       <c r="G18" s="4" cm="1">
         <f t="array" ref="G18">1/INDEX($D$8:$O$19,COLUMN(G18)-COLUMN($D$8)+1,ROW(G18)-ROW($D$8)+1)</f>
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H18" s="4" cm="1">
         <f t="array" ref="H18">1/INDEX($D$8:$O$19,COLUMN(H18)-COLUMN($D$8)+1,ROW(H18)-ROW($D$8)+1)</f>
@@ -1819,23 +1864,23 @@
       </c>
       <c r="I18" s="4" cm="1">
         <f t="array" ref="I18">1/INDEX($D$8:$O$19,COLUMN(I18)-COLUMN($D$8)+1,ROW(I18)-ROW($D$8)+1)</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J18" s="4" cm="1">
         <f t="array" ref="J18">1/INDEX($D$8:$O$19,COLUMN(J18)-COLUMN($D$8)+1,ROW(J18)-ROW($D$8)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="4" cm="1">
         <f t="array" ref="K18">1/INDEX($D$8:$O$19,COLUMN(K18)-COLUMN($D$8)+1,ROW(K18)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L18" s="4" cm="1">
         <f t="array" ref="L18">1/INDEX($D$8:$O$19,COLUMN(L18)-COLUMN($D$8)+1,ROW(L18)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="4" cm="1">
         <f t="array" ref="M18">1/INDEX($D$8:$O$19,COLUMN(M18)-COLUMN($D$8)+1,ROW(M18)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="13">
         <v>1</v>
@@ -1844,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1863,31 +1908,31 @@
       </c>
       <c r="G19" s="4" cm="1">
         <f t="array" ref="G19">1/INDEX($D$8:$O$19,COLUMN(G19)-COLUMN($D$8)+1,ROW(G19)-ROW($D$8)+1)</f>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="H19" s="4" cm="1">
         <f t="array" ref="H19">1/INDEX($D$8:$O$19,COLUMN(H19)-COLUMN($D$8)+1,ROW(H19)-ROW($D$8)+1)</f>
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I19" s="4" cm="1">
         <f t="array" ref="I19">1/INDEX($D$8:$O$19,COLUMN(I19)-COLUMN($D$8)+1,ROW(I19)-ROW($D$8)+1)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J19" s="4" cm="1">
         <f t="array" ref="J19">1/INDEX($D$8:$O$19,COLUMN(J19)-COLUMN($D$8)+1,ROW(J19)-ROW($D$8)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="K19" s="4" cm="1">
         <f t="array" ref="K19">1/INDEX($D$8:$O$19,COLUMN(K19)-COLUMN($D$8)+1,ROW(K19)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L19" s="4" cm="1">
         <f t="array" ref="L19">1/INDEX($D$8:$O$19,COLUMN(L19)-COLUMN($D$8)+1,ROW(L19)-ROW($D$8)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M19" s="4" cm="1">
         <f t="array" ref="M19">1/INDEX($D$8:$O$19,COLUMN(M19)-COLUMN($D$8)+1,ROW(M19)-ROW($D$8)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N19" s="4" cm="1">
         <f t="array" ref="N19">1/INDEX($D$8:$O$19,COLUMN(N19)-COLUMN($D$8)+1,ROW(N19)-ROW($D$8)+1)</f>
@@ -1897,25 +1942,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="9">
         <v>-20</v>
@@ -1963,8 +2008,9 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="7">
         <f>-20</f>
         <v>-20</v>
@@ -1994,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="L24" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N24" s="3">
         <v>9</v>
@@ -2006,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="5">
         <f t="shared" ref="C25:C35" si="4">C24+5</f>
         <v>-15</v>
@@ -2019,37 +2065,37 @@
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K25" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L25" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M25" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N25" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="5">
         <f t="shared" si="4"/>
         <v>-10</v>
@@ -2060,40 +2106,40 @@
       </c>
       <c r="E26" s="4" cm="1">
         <f t="array" ref="E26">1/INDEX($D$24:$O$35,COLUMN(E26)-COLUMN($D$24)+1,ROW(E26)-ROW($D$24)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="5">
         <f t="shared" si="4"/>
         <v>-5</v>
@@ -2104,11 +2150,11 @@
       </c>
       <c r="E27" s="4" cm="1">
         <f t="array" ref="E27">1/INDEX($D$24:$O$35,COLUMN(E27)-COLUMN($D$24)+1,ROW(E27)-ROW($D$24)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F27" s="4" cm="1">
         <f t="array" ref="F27">1/INDEX($D$24:$O$35,COLUMN(F27)-COLUMN($D$24)+1,ROW(F27)-ROW($D$24)+1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27" s="13">
         <v>1</v>
@@ -2138,7 +2184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2149,11 +2195,11 @@
       </c>
       <c r="E28" s="4" cm="1">
         <f t="array" ref="E28">1/INDEX($D$24:$O$35,COLUMN(E28)-COLUMN($D$24)+1,ROW(E28)-ROW($D$24)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F28" s="4" cm="1">
         <f t="array" ref="F28">1/INDEX($D$24:$O$35,COLUMN(F28)-COLUMN($D$24)+1,ROW(F28)-ROW($D$24)+1)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G28" s="4" cm="1">
         <f t="array" ref="G28">1/INDEX($D$24:$O$35,COLUMN(G28)-COLUMN($D$24)+1,ROW(G28)-ROW($D$24)+1)</f>
@@ -2184,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2195,11 +2241,11 @@
       </c>
       <c r="E29" s="4" cm="1">
         <f t="array" ref="E29">1/INDEX($D$24:$O$35,COLUMN(E29)-COLUMN($D$24)+1,ROW(E29)-ROW($D$24)+1)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F29" s="4" cm="1">
         <f t="array" ref="F29">1/INDEX($D$24:$O$35,COLUMN(F29)-COLUMN($D$24)+1,ROW(F29)-ROW($D$24)+1)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G29" s="4" cm="1">
         <f t="array" ref="G29">1/INDEX($D$24:$O$35,COLUMN(G29)-COLUMN($D$24)+1,ROW(G29)-ROW($D$24)+1)</f>
@@ -2231,7 +2277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2242,11 +2288,11 @@
       </c>
       <c r="E30" s="4" cm="1">
         <f t="array" ref="E30">1/INDEX($D$24:$O$35,COLUMN(E30)-COLUMN($D$24)+1,ROW(E30)-ROW($D$24)+1)</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F30" s="4" cm="1">
         <f t="array" ref="F30">1/INDEX($D$24:$O$35,COLUMN(F30)-COLUMN($D$24)+1,ROW(F30)-ROW($D$24)+1)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G30" s="4" cm="1">
         <f t="array" ref="G30">1/INDEX($D$24:$O$35,COLUMN(G30)-COLUMN($D$24)+1,ROW(G30)-ROW($D$24)+1)</f>
@@ -2279,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -2290,11 +2336,11 @@
       </c>
       <c r="E31" s="4" cm="1">
         <f t="array" ref="E31">1/INDEX($D$24:$O$35,COLUMN(E31)-COLUMN($D$24)+1,ROW(E31)-ROW($D$24)+1)</f>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F31" s="4" cm="1">
         <f t="array" ref="F31">1/INDEX($D$24:$O$35,COLUMN(F31)-COLUMN($D$24)+1,ROW(F31)-ROW($D$24)+1)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G31" s="4" cm="1">
         <f t="array" ref="G31">1/INDEX($D$24:$O$35,COLUMN(G31)-COLUMN($D$24)+1,ROW(G31)-ROW($D$24)+1)</f>
@@ -2328,22 +2374,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D32" s="4" cm="1">
         <f t="array" ref="D32">1/INDEX($D$24:$O$35,COLUMN(D32)-COLUMN($D$24)+1,ROW(D32)-ROW($D$24)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E32" s="4" cm="1">
         <f t="array" ref="E32">1/INDEX($D$24:$O$35,COLUMN(E32)-COLUMN($D$24)+1,ROW(E32)-ROW($D$24)+1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="F32" s="4" cm="1">
         <f t="array" ref="F32">1/INDEX($D$24:$O$35,COLUMN(F32)-COLUMN($D$24)+1,ROW(F32)-ROW($D$24)+1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G32" s="4" cm="1">
         <f t="array" ref="G32">1/INDEX($D$24:$O$35,COLUMN(G32)-COLUMN($D$24)+1,ROW(G32)-ROW($D$24)+1)</f>
@@ -2378,22 +2424,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D33" s="4" cm="1">
         <f t="array" ref="D33">1/INDEX($D$24:$O$35,COLUMN(D33)-COLUMN($D$24)+1,ROW(D33)-ROW($D$24)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E33" s="4" cm="1">
         <f t="array" ref="E33">1/INDEX($D$24:$O$35,COLUMN(E33)-COLUMN($D$24)+1,ROW(E33)-ROW($D$24)+1)</f>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F33" s="4" cm="1">
         <f t="array" ref="F33">1/INDEX($D$24:$O$35,COLUMN(F33)-COLUMN($D$24)+1,ROW(F33)-ROW($D$24)+1)</f>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="G33" s="4" cm="1">
         <f t="array" ref="G33">1/INDEX($D$24:$O$35,COLUMN(G33)-COLUMN($D$24)+1,ROW(G33)-ROW($D$24)+1)</f>
@@ -2430,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" s="5">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2441,11 +2487,11 @@
       </c>
       <c r="E34" s="4" cm="1">
         <f t="array" ref="E34">1/INDEX($D$24:$O$35,COLUMN(E34)-COLUMN($D$24)+1,ROW(E34)-ROW($D$24)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F34" s="4" cm="1">
         <f t="array" ref="F34">1/INDEX($D$24:$O$35,COLUMN(F34)-COLUMN($D$24)+1,ROW(F34)-ROW($D$24)+1)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G34" s="4" cm="1">
         <f t="array" ref="G34">1/INDEX($D$24:$O$35,COLUMN(G34)-COLUMN($D$24)+1,ROW(G34)-ROW($D$24)+1)</f>
@@ -2481,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2533,25 +2579,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
       <c r="D39" s="9">
         <v>-20</v>
@@ -2600,7 +2646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" s="7">
         <f>-20</f>
         <v>-20</v>
@@ -2653,7 +2699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
         <f t="shared" ref="C41:C51" si="7">C40+5</f>
         <v>-15</v>
@@ -2705,7 +2751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
         <f t="shared" si="7"/>
         <v>-10</v>
@@ -2756,7 +2802,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="5">
         <f t="shared" si="7"/>
         <v>-5</v>
@@ -2806,7 +2852,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -2855,7 +2901,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2903,7 +2949,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" s="5">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -2950,7 +2996,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -2996,7 +3042,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -3041,7 +3087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
         <f t="shared" si="7"/>
         <v>25</v>
@@ -3085,7 +3131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -3128,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="6">
         <f t="shared" si="7"/>
         <v>35</v>
@@ -3170,25 +3216,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="14" t="s">
+    <row r="53" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="16"/>
-    </row>
-    <row r="55" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="D55" s="9">
         <v>-20</v>
@@ -3237,7 +3283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="7">
         <f>-20</f>
         <v>-20</v>
@@ -3290,7 +3336,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
         <f t="shared" ref="C57:C67" si="10">C56+5</f>
         <v>-15</v>
@@ -3342,7 +3388,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
         <f t="shared" si="10"/>
         <v>-10</v>
@@ -3393,7 +3439,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
         <f t="shared" si="10"/>
         <v>-5</v>
@@ -3443,7 +3489,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3492,7 +3538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -3540,7 +3586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -3587,7 +3633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -3633,7 +3679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -3678,7 +3724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -3722,7 +3768,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
         <f t="shared" si="10"/>
         <v>30</v>
@@ -3765,7 +3811,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="67" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C67" s="6">
         <f t="shared" si="10"/>
         <v>35</v>
@@ -3807,25 +3853,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="16"/>
-    </row>
-    <row r="71" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
       <c r="D71" s="9">
         <v>-20</v>
@@ -3874,7 +3920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C72" s="7">
         <f>-20</f>
         <v>-20</v>
@@ -3927,7 +3973,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C73" s="5">
         <f t="shared" ref="C73:C83" si="13">C72+5</f>
         <v>-15</v>
@@ -3979,7 +4025,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C74" s="5">
         <f t="shared" si="13"/>
         <v>-10</v>
@@ -4030,7 +4076,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C75" s="5">
         <f t="shared" si="13"/>
         <v>-5</v>
@@ -4080,7 +4126,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C76" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -4129,7 +4175,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C77" s="5">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -4177,7 +4223,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C78" s="5">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -4224,7 +4270,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C79" s="5">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -4270,7 +4316,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C80" s="5">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -4315,7 +4361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="5">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -4359,7 +4405,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="5">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -4402,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C83" s="6">
         <f t="shared" si="13"/>
         <v>35</v>
